--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Ramp2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H2">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I2">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J2">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>100.670223</v>
+        <v>70.4612235</v>
       </c>
       <c r="N2">
-        <v>201.340446</v>
+        <v>140.922447</v>
       </c>
       <c r="O2">
-        <v>0.5273019182121758</v>
+        <v>0.7212317390377349</v>
       </c>
       <c r="P2">
-        <v>0.4407488795915321</v>
+        <v>0.6599535757976841</v>
       </c>
       <c r="Q2">
-        <v>1253.850043550352</v>
+        <v>1265.26394642635</v>
       </c>
       <c r="R2">
-        <v>5015.400174201407</v>
+        <v>5061.055785705402</v>
       </c>
       <c r="S2">
-        <v>0.1127259171816403</v>
+        <v>0.2446692324643582</v>
       </c>
       <c r="T2">
-        <v>0.0682043597410146</v>
+        <v>0.1705893594759435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H3">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I3">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J3">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>50.674994</v>
       </c>
       <c r="O3">
-        <v>0.08847707807829298</v>
+        <v>0.1729008393216768</v>
       </c>
       <c r="P3">
-        <v>0.1109312474097113</v>
+        <v>0.237315943668124</v>
       </c>
       <c r="Q3">
-        <v>210.3860888232853</v>
+        <v>303.3216460945673</v>
       </c>
       <c r="R3">
-        <v>1262.316532939712</v>
+        <v>1819.929876567404</v>
       </c>
       <c r="S3">
-        <v>0.01891451449625483</v>
+        <v>0.05865453967086808</v>
       </c>
       <c r="T3">
-        <v>0.01716622561097216</v>
+        <v>0.06134306458578085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H4">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I4">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J4">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.212819</v>
+        <v>9.0919305</v>
       </c>
       <c r="N4">
-        <v>3.638457</v>
+        <v>18.183861</v>
       </c>
       <c r="O4">
-        <v>0.006352640990416528</v>
+        <v>0.09306379480800843</v>
       </c>
       <c r="P4">
-        <v>0.007964846994487971</v>
+        <v>0.08515679612601428</v>
       </c>
       <c r="Q4">
-        <v>15.105689752656</v>
+        <v>163.2627322326315</v>
       </c>
       <c r="R4">
-        <v>90.63413851593599</v>
+        <v>653.050928930526</v>
       </c>
       <c r="S4">
-        <v>0.001358059315616295</v>
+        <v>0.03157077817495305</v>
       </c>
       <c r="T4">
-        <v>0.001232532434790637</v>
+        <v>0.02201191695734313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H5">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I5">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J5">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>15.2624985</v>
+        <v>0.2229656666666667</v>
       </c>
       <c r="N5">
-        <v>30.524997</v>
+        <v>0.6688970000000001</v>
       </c>
       <c r="O5">
-        <v>0.07994364665071274</v>
+        <v>0.002282246993847728</v>
       </c>
       <c r="P5">
-        <v>0.06682143848675531</v>
+        <v>0.003132509947051541</v>
       </c>
       <c r="Q5">
-        <v>190.094785117464</v>
+        <v>4.003768389350333</v>
       </c>
       <c r="R5">
-        <v>760.3791404698559</v>
+        <v>24.022610336102</v>
       </c>
       <c r="S5">
-        <v>0.01709024864180453</v>
+        <v>0.0007742249682797131</v>
       </c>
       <c r="T5">
-        <v>0.01034038573889616</v>
+        <v>0.0008097128116529241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +788,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H6">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I6">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J6">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>56.74208066666666</v>
+        <v>1.027893333333333</v>
       </c>
       <c r="N6">
-        <v>170.226242</v>
+        <v>3.08368</v>
       </c>
       <c r="O6">
-        <v>0.2972101092781263</v>
+        <v>0.01052137983873207</v>
       </c>
       <c r="P6">
-        <v>0.3726376241293168</v>
+        <v>0.01444117446112614</v>
       </c>
       <c r="Q6">
-        <v>706.7239765132691</v>
+        <v>18.45776032314667</v>
       </c>
       <c r="R6">
-        <v>4240.343859079615</v>
+        <v>110.74656193888</v>
       </c>
       <c r="S6">
-        <v>0.06353718999852241</v>
+        <v>0.00356925214223533</v>
       </c>
       <c r="T6">
-        <v>0.05766437930076409</v>
+        <v>0.003732854539694286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.455024</v>
+        <v>32.753573</v>
       </c>
       <c r="H7">
-        <v>24.910048</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I7">
-        <v>0.2137786973425757</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J7">
-        <v>0.1547465300518145</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1364296666666667</v>
+        <v>70.4612235</v>
       </c>
       <c r="N7">
-        <v>0.409289</v>
+        <v>140.922447</v>
       </c>
       <c r="O7">
-        <v>0.0007146067902758204</v>
+        <v>0.7212317390377349</v>
       </c>
       <c r="P7">
-        <v>0.0008959633881964215</v>
+        <v>0.6599535757976841</v>
       </c>
       <c r="Q7">
-        <v>1.699234772645333</v>
+        <v>2307.856827576565</v>
       </c>
       <c r="R7">
-        <v>10.195408635872</v>
+        <v>13847.14096545939</v>
       </c>
       <c r="S7">
-        <v>0.0001527677087373241</v>
+        <v>0.4462796559055002</v>
       </c>
       <c r="T7">
-        <v>0.0001386472253768631</v>
+        <v>0.4667355998214074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +918,40 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I8">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J8">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>100.670223</v>
+        <v>16.89166466666667</v>
       </c>
       <c r="N8">
-        <v>201.340446</v>
+        <v>50.674994</v>
       </c>
       <c r="O8">
-        <v>0.5273019182121758</v>
+        <v>0.1729008393216768</v>
       </c>
       <c r="P8">
-        <v>0.4407488795915321</v>
+        <v>0.237315943668124</v>
       </c>
       <c r="Q8">
-        <v>3297.309497956778</v>
+        <v>553.2623717511873</v>
       </c>
       <c r="R8">
-        <v>19783.85698774067</v>
+        <v>4979.361345760685</v>
       </c>
       <c r="S8">
-        <v>0.2964407420973906</v>
+        <v>0.1069865937697079</v>
       </c>
       <c r="T8">
-        <v>0.2690404059874453</v>
+        <v>0.1678357438722039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +980,40 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I9">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J9">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.89166466666667</v>
+        <v>9.0919305</v>
       </c>
       <c r="N9">
-        <v>50.674994</v>
+        <v>18.183861</v>
       </c>
       <c r="O9">
-        <v>0.08847707807829298</v>
+        <v>0.09306379480800843</v>
       </c>
       <c r="P9">
-        <v>0.1109312474097113</v>
+        <v>0.08515679612601428</v>
       </c>
       <c r="Q9">
-        <v>553.2623717511873</v>
+        <v>297.7932093426764</v>
       </c>
       <c r="R9">
-        <v>4979.361345760685</v>
+        <v>1786.759256056059</v>
       </c>
       <c r="S9">
-        <v>0.04974040445948887</v>
+        <v>0.05758548338373264</v>
       </c>
       <c r="T9">
-        <v>0.06771426819612467</v>
+        <v>0.06022500638882675</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1042,40 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I10">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J10">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.212819</v>
+        <v>0.2229656666666667</v>
       </c>
       <c r="N10">
-        <v>3.638457</v>
+        <v>0.6688970000000001</v>
       </c>
       <c r="O10">
-        <v>0.006352640990416528</v>
+        <v>0.002282246993847728</v>
       </c>
       <c r="P10">
-        <v>0.007964846994487971</v>
+        <v>0.003132509947051541</v>
       </c>
       <c r="Q10">
-        <v>39.72415565228699</v>
+        <v>7.302922239660334</v>
       </c>
       <c r="R10">
-        <v>357.5174008705829</v>
+        <v>65.726300156943</v>
       </c>
       <c r="S10">
-        <v>0.003571353610588656</v>
+        <v>0.001412195758972883</v>
       </c>
       <c r="T10">
-        <v>0.00486187434216701</v>
+        <v>0.002215389025381741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1104,45 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I11">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J11">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>15.2624985</v>
+        <v>1.027893333333333</v>
       </c>
       <c r="N11">
-        <v>30.524997</v>
+        <v>3.08368</v>
       </c>
       <c r="O11">
-        <v>0.07994364665071274</v>
+        <v>0.01052137983873207</v>
       </c>
       <c r="P11">
-        <v>0.06682143848675531</v>
+        <v>0.01444117446112614</v>
       </c>
       <c r="Q11">
-        <v>499.9013587821404</v>
+        <v>33.66717932954666</v>
       </c>
       <c r="R11">
-        <v>2999.408152692843</v>
+        <v>303.00461396592</v>
       </c>
       <c r="S11">
-        <v>0.04494304519023774</v>
+        <v>0.006510359319939393</v>
       </c>
       <c r="T11">
-        <v>0.04078891126349025</v>
+        <v>0.01021315812417931</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1154,117 +1151,117 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.753573</v>
+        <v>1.903653</v>
       </c>
       <c r="H12">
-        <v>98.26071899999999</v>
+        <v>3.807306</v>
       </c>
       <c r="I12">
-        <v>0.5621840768235339</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J12">
-        <v>0.6104165397692691</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.74208066666666</v>
+        <v>70.4612235</v>
       </c>
       <c r="N12">
-        <v>170.226242</v>
+        <v>140.922447</v>
       </c>
       <c r="O12">
-        <v>0.2972101092781263</v>
+        <v>0.7212317390377349</v>
       </c>
       <c r="P12">
-        <v>0.3726376241293168</v>
+        <v>0.6599535757976841</v>
       </c>
       <c r="Q12">
-        <v>1858.505881287555</v>
+        <v>134.1337194994455</v>
       </c>
       <c r="R12">
-        <v>16726.55293158799</v>
+        <v>536.534877997782</v>
       </c>
       <c r="S12">
-        <v>0.1670867909071451</v>
+        <v>0.0259379825768466</v>
       </c>
       <c r="T12">
-        <v>0.2274641691088591</v>
+        <v>0.0180845944106479</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.903653</v>
+      </c>
+      <c r="H13">
+        <v>3.807306</v>
+      </c>
+      <c r="I13">
+        <v>0.03596345137480081</v>
+      </c>
+      <c r="J13">
+        <v>0.02740282812891664</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>32.753573</v>
-      </c>
-      <c r="H13">
-        <v>98.26071899999999</v>
-      </c>
-      <c r="I13">
-        <v>0.5621840768235339</v>
-      </c>
-      <c r="J13">
-        <v>0.6104165397692691</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1364296666666667</v>
+        <v>16.89166466666667</v>
       </c>
       <c r="N13">
-        <v>0.409289</v>
+        <v>50.674994</v>
       </c>
       <c r="O13">
-        <v>0.0007146067902758204</v>
+        <v>0.1729008393216768</v>
       </c>
       <c r="P13">
-        <v>0.0008959633881964215</v>
+        <v>0.237315943668124</v>
       </c>
       <c r="Q13">
-        <v>4.468559046532333</v>
+        <v>32.155868117694</v>
       </c>
       <c r="R13">
-        <v>40.217031418791</v>
+        <v>192.935208706164</v>
       </c>
       <c r="S13">
-        <v>0.0004017405586830408</v>
+        <v>0.006218110927607372</v>
       </c>
       <c r="T13">
-        <v>0.00054691087118281</v>
+        <v>0.006503128016589265</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.3556395</v>
+        <v>1.903653</v>
       </c>
       <c r="H14">
-        <v>2.711279</v>
+        <v>3.807306</v>
       </c>
       <c r="I14">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J14">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>100.670223</v>
+        <v>9.0919305</v>
       </c>
       <c r="N14">
-        <v>201.340446</v>
+        <v>18.183861</v>
       </c>
       <c r="O14">
-        <v>0.5273019182121758</v>
+        <v>0.09306379480800843</v>
       </c>
       <c r="P14">
-        <v>0.4407488795915321</v>
+        <v>0.08515679612601428</v>
       </c>
       <c r="Q14">
-        <v>136.4725307726085</v>
+        <v>17.3078807721165</v>
       </c>
       <c r="R14">
-        <v>545.890123090434</v>
+        <v>69.23152308846601</v>
       </c>
       <c r="S14">
-        <v>0.01226940277314281</v>
+        <v>0.003346895259332251</v>
       </c>
       <c r="T14">
-        <v>0.007423552466629466</v>
+        <v>0.002333537048250364</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.3556395</v>
+        <v>1.903653</v>
       </c>
       <c r="H15">
-        <v>2.711279</v>
+        <v>3.807306</v>
       </c>
       <c r="I15">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J15">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>16.89166466666667</v>
+        <v>0.2229656666666667</v>
       </c>
       <c r="N15">
-        <v>50.674994</v>
+        <v>0.6688970000000001</v>
       </c>
       <c r="O15">
-        <v>0.08847707807829298</v>
+        <v>0.002282246993847728</v>
       </c>
       <c r="P15">
-        <v>0.1109312474097113</v>
+        <v>0.003132509947051541</v>
       </c>
       <c r="Q15">
-        <v>22.89900784288767</v>
+        <v>0.4244492602470001</v>
       </c>
       <c r="R15">
-        <v>137.394047057326</v>
+        <v>2.546695561482</v>
       </c>
       <c r="S15">
-        <v>0.002058708435603629</v>
+        <v>8.207747878852811E-05</v>
       </c>
       <c r="T15">
-        <v>0.001868419804260955</v>
+        <v>8.583963169117515E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,51 +1408,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.3556395</v>
+        <v>1.903653</v>
       </c>
       <c r="H16">
-        <v>2.711279</v>
+        <v>3.807306</v>
       </c>
       <c r="I16">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J16">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.212819</v>
+        <v>1.027893333333333</v>
       </c>
       <c r="N16">
-        <v>3.638457</v>
+        <v>3.08368</v>
       </c>
       <c r="O16">
-        <v>0.006352640990416528</v>
+        <v>0.01052137983873207</v>
       </c>
       <c r="P16">
-        <v>0.007964846994487971</v>
+        <v>0.01444117446112614</v>
       </c>
       <c r="Q16">
-        <v>1.6441453427505</v>
+        <v>1.95675222768</v>
       </c>
       <c r="R16">
-        <v>9.864872056503</v>
+        <v>11.74051336608</v>
       </c>
       <c r="S16">
-        <v>0.0001478149581720932</v>
+        <v>0.0003783851322260502</v>
       </c>
       <c r="T16">
-        <v>0.000134152262864637</v>
+        <v>0.0003957290217379401</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1464,25 +1461,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.3556395</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H17">
-        <v>2.711279</v>
+        <v>0.956642</v>
       </c>
       <c r="I17">
-        <v>0.02326826880270489</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J17">
-        <v>0.01684304330735749</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.2624985</v>
+        <v>70.4612235</v>
       </c>
       <c r="N17">
-        <v>30.524997</v>
+        <v>140.922447</v>
       </c>
       <c r="O17">
-        <v>0.07994364665071274</v>
+        <v>0.7212317390377349</v>
       </c>
       <c r="P17">
-        <v>0.06682143848675531</v>
+        <v>0.6599535757976841</v>
       </c>
       <c r="Q17">
-        <v>20.69044583529075</v>
+        <v>22.468721923829</v>
       </c>
       <c r="R17">
-        <v>82.76178334116301</v>
+        <v>134.812331542974</v>
       </c>
       <c r="S17">
-        <v>0.001860150259337243</v>
+        <v>0.00434486809102984</v>
       </c>
       <c r="T17">
-        <v>0.001125476382292344</v>
+        <v>0.004544022089685207</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1526,25 +1523,25 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.3556395</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H18">
-        <v>2.711279</v>
+        <v>0.956642</v>
       </c>
       <c r="I18">
-        <v>0.02326826880270489</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J18">
-        <v>0.01684304330735749</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1550,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.74208066666666</v>
+        <v>16.89166466666667</v>
       </c>
       <c r="N18">
-        <v>170.226242</v>
+        <v>50.674994</v>
       </c>
       <c r="O18">
-        <v>0.2972101092781263</v>
+        <v>0.1729008393216768</v>
       </c>
       <c r="P18">
-        <v>0.3726376241293168</v>
+        <v>0.237315943668124</v>
       </c>
       <c r="Q18">
-        <v>76.92180586391966</v>
+        <v>5.386425290016445</v>
       </c>
       <c r="R18">
-        <v>461.530835183518</v>
+        <v>48.477827610148</v>
       </c>
       <c r="S18">
-        <v>0.006915564713564738</v>
+        <v>0.00104159495349348</v>
       </c>
       <c r="T18">
-        <v>0.006276351641160884</v>
+        <v>0.001634007193549977</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.3556395</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H19">
-        <v>2.711279</v>
+        <v>0.956642</v>
       </c>
       <c r="I19">
-        <v>0.02326826880270489</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J19">
-        <v>0.01684304330735749</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1364296666666667</v>
+        <v>9.0919305</v>
       </c>
       <c r="N19">
-        <v>0.409289</v>
+        <v>18.183861</v>
       </c>
       <c r="O19">
-        <v>0.0007146067902758204</v>
+        <v>0.09306379480800843</v>
       </c>
       <c r="P19">
-        <v>0.0008959633881964215</v>
+        <v>0.08515679612601428</v>
       </c>
       <c r="Q19">
-        <v>0.1849494451051667</v>
+        <v>2.899240859127</v>
       </c>
       <c r="R19">
-        <v>1.109696670631</v>
+        <v>17.395445154762</v>
       </c>
       <c r="S19">
-        <v>1.662766288437595E-05</v>
+        <v>0.0005606379899904942</v>
       </c>
       <c r="T19">
-        <v>1.509075014919907E-05</v>
+        <v>0.0005863357315940259</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1647,55 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>11.69705966666667</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H20">
-        <v>35.091179</v>
+        <v>0.956642</v>
       </c>
       <c r="I20">
-        <v>0.2007689570311854</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J20">
-        <v>0.2179938868715589</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>100.670223</v>
+        <v>0.2229656666666667</v>
       </c>
       <c r="N20">
-        <v>201.340446</v>
+        <v>0.6688970000000001</v>
       </c>
       <c r="O20">
-        <v>0.5273019182121758</v>
+        <v>0.002282246993847728</v>
       </c>
       <c r="P20">
-        <v>0.4407488795915321</v>
+        <v>0.003132509947051541</v>
       </c>
       <c r="Q20">
-        <v>1177.545605087639</v>
+        <v>0.07109944043044444</v>
       </c>
       <c r="R20">
-        <v>7065.273630525833</v>
+        <v>0.639894963874</v>
       </c>
       <c r="S20">
-        <v>0.105865856160002</v>
+        <v>1.374878780660395E-05</v>
       </c>
       <c r="T20">
-        <v>0.09608056139644279</v>
+        <v>2.156847832570042E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,303 +1709,55 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>11.69705966666667</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H21">
-        <v>35.091179</v>
+        <v>0.956642</v>
       </c>
       <c r="I21">
-        <v>0.2007689570311854</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J21">
-        <v>0.2179938868715589</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>16.89166466666667</v>
+        <v>1.027893333333333</v>
       </c>
       <c r="N21">
-        <v>50.674994</v>
+        <v>3.08368</v>
       </c>
       <c r="O21">
-        <v>0.08847707807829298</v>
+        <v>0.01052137983873207</v>
       </c>
       <c r="P21">
-        <v>0.1109312474097113</v>
+        <v>0.01444117446112614</v>
       </c>
       <c r="Q21">
-        <v>197.5828094753251</v>
+        <v>0.3277753113955555</v>
       </c>
       <c r="R21">
-        <v>1778.245285277926</v>
+        <v>2.94997780256</v>
       </c>
       <c r="S21">
-        <v>0.01776345068694564</v>
+        <v>6.338324433129237E-05</v>
       </c>
       <c r="T21">
-        <v>0.02418233379835352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>11.69705966666667</v>
-      </c>
-      <c r="H22">
-        <v>35.091179</v>
-      </c>
-      <c r="I22">
-        <v>0.2007689570311854</v>
-      </c>
-      <c r="J22">
-        <v>0.2179938868715589</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>1.212819</v>
-      </c>
-      <c r="N22">
-        <v>3.638457</v>
-      </c>
-      <c r="O22">
-        <v>0.006352640990416528</v>
-      </c>
-      <c r="P22">
-        <v>0.007964846994487971</v>
-      </c>
-      <c r="Q22">
-        <v>14.186416207867</v>
-      </c>
-      <c r="R22">
-        <v>127.677745870803</v>
-      </c>
-      <c r="S22">
-        <v>0.001275413106039483</v>
-      </c>
-      <c r="T22">
-        <v>0.001736287954665687</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>11.69705966666667</v>
-      </c>
-      <c r="H23">
-        <v>35.091179</v>
-      </c>
-      <c r="I23">
-        <v>0.2007689570311854</v>
-      </c>
-      <c r="J23">
-        <v>0.2179938868715589</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>15.2624985</v>
-      </c>
-      <c r="N23">
-        <v>30.524997</v>
-      </c>
-      <c r="O23">
-        <v>0.07994364665071274</v>
-      </c>
-      <c r="P23">
-        <v>0.06682143848675531</v>
-      </c>
-      <c r="Q23">
-        <v>178.5263556169105</v>
-      </c>
-      <c r="R23">
-        <v>1071.158133701463</v>
-      </c>
-      <c r="S23">
-        <v>0.01605020255933321</v>
-      </c>
-      <c r="T23">
-        <v>0.01456666510207657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>11.69705966666667</v>
-      </c>
-      <c r="H24">
-        <v>35.091179</v>
-      </c>
-      <c r="I24">
-        <v>0.2007689570311854</v>
-      </c>
-      <c r="J24">
-        <v>0.2179938868715589</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>56.74208066666666</v>
-      </c>
-      <c r="N24">
-        <v>170.226242</v>
-      </c>
-      <c r="O24">
-        <v>0.2972101092781263</v>
-      </c>
-      <c r="P24">
-        <v>0.3726376241293168</v>
-      </c>
-      <c r="Q24">
-        <v>663.715503168813</v>
-      </c>
-      <c r="R24">
-        <v>5973.439528519317</v>
-      </c>
-      <c r="S24">
-        <v>0.05967056365889405</v>
-      </c>
-      <c r="T24">
-        <v>0.08123272407853278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>11.69705966666667</v>
-      </c>
-      <c r="H25">
-        <v>35.091179</v>
-      </c>
-      <c r="I25">
-        <v>0.2007689570311854</v>
-      </c>
-      <c r="J25">
-        <v>0.2179938868715589</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1364296666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.409289</v>
-      </c>
-      <c r="O25">
-        <v>0.0007146067902758204</v>
-      </c>
-      <c r="P25">
-        <v>0.0008959633881964215</v>
-      </c>
-      <c r="Q25">
-        <v>1.595825951303445</v>
-      </c>
-      <c r="R25">
-        <v>14.362433561731</v>
-      </c>
-      <c r="S25">
-        <v>0.0001434708599710795</v>
-      </c>
-      <c r="T25">
-        <v>0.0001953145414875493</v>
+        <v>9.943277551460968E-05</v>
       </c>
     </row>
   </sheetData>
